--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/11,25/25,11,25 Ост КИ филиалы/дв 25,11,25 днрсч ост ки от Переверзева.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/11,25/25,11,25 Ост КИ филиалы/дв 25,11,25 днрсч ост ки от Переверзева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\25,11,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\11,25\25,11,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D8B357-BE90-45A7-9621-CF6498B1F9B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9248ECE4-E4D2-4A0B-8C6C-9A0E0AD7C622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="157">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>01,12,</t>
+  </si>
+  <si>
+    <t>ротация на 7382</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1009,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X8" sqref="X8"/>
+      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1709,7 @@
       </c>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5">
-        <f t="shared" ref="AJ7:AK70" si="11">G7*U7</f>
+        <f t="shared" ref="AJ7:AJ70" si="11">G7*U7</f>
         <v>0</v>
       </c>
       <c r="AK7" s="5">
@@ -3074,7 +3077,7 @@
         <v>40.4</v>
       </c>
       <c r="AI18" s="5" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="AJ18" s="5">
         <f t="shared" si="11"/>
@@ -9596,7 +9599,7 @@
       </c>
       <c r="AI71" s="5"/>
       <c r="AJ71" s="5">
-        <f t="shared" ref="AJ71:AK96" si="31">G71*U71</f>
+        <f t="shared" ref="AJ71:AJ96" si="31">G71*U71</f>
         <v>49.343478260869553</v>
       </c>
       <c r="AK71" s="5">
@@ -10772,7 +10775,7 @@
         <v>357.76190476190476</v>
       </c>
       <c r="V81" s="4">
-        <f t="shared" ref="V80:V81" si="35">T81/2.1</f>
+        <f t="shared" ref="V81" si="35">T81/2.1</f>
         <v>325.23809523809524</v>
       </c>
       <c r="W81" s="4"/>
